--- a/SeleniumTest/Data1.xlsx
+++ b/SeleniumTest/Data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\SeleniumLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Venkatesh\git\seleniumTest\Seleniumtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72DE85C-75DF-4443-A350-06AD95A1D850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F867DEC-8ED6-43A0-AC6A-F3BD09F671F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19560" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>admin</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Keyword</t>
+  </si>
+  <si>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,6 +501,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
